--- a/Incubyte Test.xlsx
+++ b/Incubyte Test.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Traditional Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="BDD Test Cases" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
   <si>
     <t>Module</t>
   </si>
@@ -24,9 +25,6 @@
     <t>Sub-Module</t>
   </si>
   <si>
-    <t>Prequisites</t>
-  </si>
-  <si>
     <t>Test Steps</t>
   </si>
   <si>
@@ -103,10 +101,6 @@
   </si>
   <si>
     <t>Subject: Incubyte</t>
-  </si>
-  <si>
-    <t>1. User must have active Gmail account
-2. User must be logged in</t>
   </si>
   <si>
     <t>Actual output</t>
@@ -129,10 +123,6 @@
   </si>
   <si>
     <t>To verify that a user is able to click on send button with valid inputs in Gmail compose window.</t>
-  </si>
-  <si>
-    <t>1. User must have active Gmail account.
-2. User must be logged in into Gmail.</t>
   </si>
   <si>
     <t>1. Open Gmail
@@ -368,16 +358,10 @@
     </r>
   </si>
   <si>
-    <t>To verify user is able to click on the "X" cancel button on compose mail without entereing any details.</t>
-  </si>
-  <si>
     <t>To verify that a user is able to click on send button with valid inputs but without any Subject in Gmail compose window.</t>
   </si>
   <si>
     <t>To verify that a user is able to click on send button with valid inputs but without any Body in Gmail compose window.</t>
-  </si>
-  <si>
-    <t>To verify that a user is able to click on send button with valid inputs but without any recepient address in Gmail compose window.</t>
   </si>
   <si>
     <t>User should be able to send the mail without any subject successfully and should get confirmation message as "Message sent" and the email should be displayed in sent folder.</t>
@@ -403,9 +387,6 @@
   </si>
   <si>
     <t xml:space="preserve">To verify User is able to enter multiple valid recipient to send the mail. </t>
-  </si>
-  <si>
-    <t>To verify that a user is able to click on send button with invalid recepient address in Gmail compose window.</t>
   </si>
   <si>
     <t>To verify that a user is able to click on the 'Compose' button when clicked from home page.</t>
@@ -700,14 +681,6 @@
 6. Click on the send button.</t>
   </si>
   <si>
-    <t>1. Open Gmail
-2. Click on the compose button.
-3. Do not add any recepient in the To field.
-4. Enter "Incubyte" in subject field.
-5. Enter "QA test for incubyte" in body field.
-6. Click on the send button.</t>
-  </si>
-  <si>
     <t>To: 
 Subject: Incubyte
 Body: QA test for incubyte</t>
@@ -1734,27 +1707,9 @@
     <t>Edit and send an email from draft section successfully.</t>
   </si>
   <si>
-    <t>Mail is sent to all valid recepients successfully.</t>
-  </si>
-  <si>
-    <t>User should be able to enter as many an valid recipients and mail is sent to all the recepients successfully.</t>
-  </si>
-  <si>
     <t>User should be able to edit the mail and should get confirmation message as "Message sent" and the email should be displayed in sent folder..</t>
   </si>
   <si>
-    <t>Email is editted and sent from draft section successfully and confirmation is displayed on the screen and that email is  displayed in sent folder.</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on the draft section.
-3. Open the mail to edit.
-4. Enter the valid recepient email id (ex. abc@validmail.com, xyz@validmail.com,) in the To field.
-4. Enter "Incubyte" in subject field.
-5. Enter "QA test for incubyte" in body field
-6. Click on the send button.</t>
-  </si>
-  <si>
     <t>To verify user is able to view, edit and send the mail from draft section successfully.</t>
   </si>
   <si>
@@ -1980,40 +1935,12 @@
     </r>
   </si>
   <si>
-    <t>To verify users can format mail using editor-options provided like choosing font-family, font-size, bold-italic-underline, etc. in compose mail</t>
-  </si>
-  <si>
     <t>Verify that users can format mail using editor-options in compose mail and send the formatted mail successfully</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on the compose button.
-3. Enter the valid recepient email id in the To field.
-4. Enter "Incubyte" in subject field.
-5. Choose font size "15" and bold.
-6. Enter "QA test for incubyte" in body field
-7. Click on the send button.</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on the compose button.
-3. Enter the invalid recepient email id (ex. abc@invalidmail.com, xyz.validmail@com, or abc@validmail) in the To field.
-4. Enter "Incubyte" in subject field.
-5. Enter "QA test for incubyte" in body field.
-6. Click on the send button.</t>
   </si>
   <si>
     <t>To: abc@invalidmail.com, xyz.validmail@com, abc@validmail
 Subject: Incubyte
 Body: QA test for incubyte</t>
-  </si>
-  <si>
-    <t>1. Open Gmail
-2. Click on the compose button.
-3. Enter the valid recepient email id (ex. abc@validmail.com, xyz@validmail.com) in the To field.
-4. Enter "Incubyte" in subject field.
-5. Enter "QA test for incubyte" in body field
-6. Click on the send button.</t>
   </si>
   <si>
     <t>To: abc@validmail.com, xyz@validmail.com
@@ -2257,9 +2184,6 @@
   </si>
   <si>
     <t>Verify that the user can attach file as an attachement to the email.</t>
-  </si>
-  <si>
-    <t>To Verify that the user can attach file as an attachement to the email in Gmail compose window.</t>
   </si>
   <si>
     <t>1. Open Gmail
@@ -2482,6 +2406,540 @@
         <scheme val="minor"/>
       </rPr>
       <t>Mail is displayed in the sent folder.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. User must have an active Gmail account.
+2. User must be logged in into Gmail.</t>
+  </si>
+  <si>
+    <t>Verify that the user can attach file as an attachment to the email.</t>
+  </si>
+  <si>
+    <t>To Verify that the user can attach file as an attachment to the email in Gmail compose window.</t>
+  </si>
+  <si>
+    <t>Verify that users can format mail using editor-options in compose mail and send the formatted mail successfully.</t>
+  </si>
+  <si>
+    <t>To verify users can format mail using editor-option provided like choosing font-family, font-size, bold-italic-underline, etc. in compose mail.</t>
+  </si>
+  <si>
+    <t>1. User must have an active Gmail account
+2. User must be logged in</t>
+  </si>
+  <si>
+    <t>To verify that a user is able to click on send button with valid inputs but without any recipient address in Gmail compose window.</t>
+  </si>
+  <si>
+    <t>1. Open Gmail
+2. Click on the compose button.
+3. Do not add any recipient in the To field.
+4. Enter "Incubyte" in subject field.
+5. Enter "QA test for incubyte" in body field.
+6. Click on the send button.</t>
+  </si>
+  <si>
+    <t>To verify that a user is able to click on send button with invalid recipient address in Gmail compose window.</t>
+  </si>
+  <si>
+    <t>1. Open Gmail
+2. Click on the compose button.
+3. Enter the valid recipient email id (ex. abc@validmail.com, xyz@validmail.com) in the To field.
+4. Enter "Incubyte" in subject field.
+5. Enter "QA test for incubyte" in body field
+6. Click on the send button.</t>
+  </si>
+  <si>
+    <t>User should be able to enter as many an valid recipients and mail is sent to all the recipients successfully.</t>
+  </si>
+  <si>
+    <t>Mail is sent to all valid recipients successfully.</t>
+  </si>
+  <si>
+    <t>1. Open Gmail
+2. Click on the draft section.
+3. Open the mail to edit.
+4. Enter the valid recipient email id (ex. abc@validmail.com, xyz@validmail.com,) in the To field.
+4. Enter "Incubyte" in subject field.
+5. Enter "QA test for incubyte" in body field
+6. Click on the send button.</t>
+  </si>
+  <si>
+    <t>1. Open Gmail
+2. Click on the compose button.
+3. Enter the valid recipient email id in the To field.
+4. Enter "Incubyte" in subject field.
+5. Choose font size "15" and bold.
+6. Enter "QA test for incubyte" in body field
+7. Click on the send button.</t>
+  </si>
+  <si>
+    <t>1. Open Gmail
+2. Click on the compose button.
+3. Enter the invalid recipient email id (ex. abc@invalidmail.com, xyz.validmail@com, or abc@validmail) in the To field.
+4. Enter "Incubyte" in subject field.
+5. Enter "QA test for incubyte" in body field.
+6. Click on the send button.</t>
+  </si>
+  <si>
+    <t>To verify user is able to click on the "X" cancel button on compose mail without entering any details.</t>
+  </si>
+  <si>
+    <t>Email is edited and sent from draft section successfully and confirmation is displayed on the screen and that email is  displayed in sent folder.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>To verify that an email is not sent with valid inputs but without any recipient address in Gmail compose window.</t>
+  </si>
+  <si>
+    <t>User should get a toast message as "Please enter atleast 1 recipient".</t>
+  </si>
+  <si>
+    <t>Mail is not sent and an error message is displayed as "Please enter atleast 1 recipient"</t>
+  </si>
+  <si>
+    <t>To verify that an email is not sent to the recipient with invalid recipient address in Gmail compose window.</t>
+  </si>
+  <si>
+    <t>Mail is sent but not to the recipient and gets mail delivery error as "Address not found".</t>
+  </si>
+  <si>
+    <t>User should be able to send mail successfully but not to the recipient  and  should get mail delivery error as "Address not found".</t>
+  </si>
+  <si>
+    <t>Don’t send an email using the Gmail compose feature successfully.</t>
+  </si>
+  <si>
+    <t>Don’t send an email using the Gmail compose feature.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Given </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User has an active Gmail account 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> user is logged in into Gmail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks on the Compose button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Do not enter in the To field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter "Incubyte" in the subject field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter "QA test for incubyte" in the body field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on the send button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mail is not sent 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Error message is displayed as "Please enter atleast 1 recipient"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Given </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User has an active Gmail account 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> user is logged in into Gmail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user clicks on the Compose button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter invalid recipient email id (ex. abc@invalidmail.com, xyz.validmail@com, or abc@validmail,) in the To field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter "Incubyte" in the subject field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter "QA test for incubyte" in the body field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on the send button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mail is sent but not to the recipient 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gets</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mail delivery error as "Address not found"
+</t>
     </r>
   </si>
 </sst>
@@ -2849,7 +3307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2868,7 +3326,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2877,440 +3335,510 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="150">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="105">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="150">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="150">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="150">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="210">
       <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="195">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="195">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="180">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="105">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="150">
+      <c r="A14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="210">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>9</v>
+      <c r="H15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3321,10 +3849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3335,145 +3863,167 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="300">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="240">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="240">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="210">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="285">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="285">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="300">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="330">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="165">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="105">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="225">
+      <c r="A14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="285">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3492,4 +4042,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>